--- a/income_data.xlsx
+++ b/income_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genos\Dropbox\2023_세수감소\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE79A2A-9097-47D3-8224-3D6FB7718647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C18FC5-CA52-4E53-8E70-926AD5707D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="630" windowWidth="19580" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18820" yWindow="630" windowWidth="19580" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4177,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A998" workbookViewId="0">
-      <selection activeCell="J1033" sqref="J1033"/>
+    <sheetView tabSelected="1" topLeftCell="A1001" workbookViewId="0">
+      <selection activeCell="F1038" sqref="F1038"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -34005,6 +34005,9 @@
       <c r="C1029" t="s">
         <v>1255</v>
       </c>
+      <c r="F1029">
+        <v>125.6</v>
+      </c>
       <c r="G1029">
         <v>34.200000000000003</v>
       </c>
@@ -34019,6 +34022,9 @@
       <c r="C1030" t="s">
         <v>1257</v>
       </c>
+      <c r="F1030">
+        <v>122</v>
+      </c>
       <c r="G1030">
         <v>34.299999999999997</v>
       </c>
@@ -34033,6 +34039,9 @@
       <c r="C1031" t="s">
         <v>1258</v>
       </c>
+      <c r="F1031">
+        <v>35.299999999999997</v>
+      </c>
       <c r="G1031">
         <v>28.1</v>
       </c>
@@ -34047,6 +34056,9 @@
       <c r="C1032" t="s">
         <v>1256</v>
       </c>
+      <c r="F1032">
+        <v>22.8</v>
+      </c>
       <c r="G1032">
         <v>29.4</v>
       </c>
@@ -34061,6 +34073,9 @@
       <c r="C1033" t="s">
         <v>36</v>
       </c>
+      <c r="F1033">
+        <v>40.299999999999997</v>
+      </c>
       <c r="G1033">
         <v>49.5</v>
       </c>
@@ -34075,6 +34090,9 @@
       <c r="C1034" t="s">
         <v>37</v>
       </c>
+      <c r="F1034">
+        <v>3.6</v>
+      </c>
       <c r="G1034">
         <v>23.2</v>
       </c>
@@ -34089,6 +34107,9 @@
       <c r="C1035" t="s">
         <v>38</v>
       </c>
+      <c r="F1035">
+        <v>2.1</v>
+      </c>
       <c r="G1035">
         <v>23.4</v>
       </c>
@@ -34113,6 +34134,9 @@
       </c>
       <c r="C1037" t="s">
         <v>40</v>
+      </c>
+      <c r="F1037">
+        <v>3.6</v>
       </c>
       <c r="G1037">
         <v>32.1</v>

--- a/income_data.xlsx
+++ b/income_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genos\Dropbox\2023_세수감소\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C18FC5-CA52-4E53-8E70-926AD5707D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3BEC8A-B53B-4F02-8331-C66FD1F55BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18820" yWindow="630" windowWidth="19580" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4177,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1001" workbookViewId="0">
-      <selection activeCell="F1038" sqref="F1038"/>
+    <sheetView tabSelected="1" topLeftCell="A995" workbookViewId="0">
+      <selection activeCell="L1015" sqref="L1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
